--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>52.51375773771188</v>
+        <v>198.1760075579738</v>
       </c>
       <c r="R2">
-        <v>52.51375773771188</v>
+        <v>1783.584068021764</v>
       </c>
       <c r="S2">
-        <v>0.0002875872604976552</v>
+        <v>0.0008696965945641218</v>
       </c>
       <c r="T2">
-        <v>0.0002875872604976552</v>
+        <v>0.0008696965945641219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>797.5964594445257</v>
+        <v>1414.439149607194</v>
       </c>
       <c r="R3">
-        <v>797.5964594445257</v>
+        <v>12729.95234646475</v>
       </c>
       <c r="S3">
-        <v>0.004367971187663761</v>
+        <v>0.006207274668562944</v>
       </c>
       <c r="T3">
-        <v>0.004367971187663761</v>
+        <v>0.006207274668562944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>709.5981796567634</v>
+        <v>1383.186035098941</v>
       </c>
       <c r="R4">
-        <v>709.5981796567634</v>
+        <v>12448.67431589047</v>
       </c>
       <c r="S4">
-        <v>0.003886055870556395</v>
+        <v>0.006070120188601999</v>
       </c>
       <c r="T4">
-        <v>0.003886055870556395</v>
+        <v>0.006070120188601999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>886.5128146861717</v>
+        <v>1580.545757099696</v>
       </c>
       <c r="R5">
-        <v>886.5128146861717</v>
+        <v>14224.91181389726</v>
       </c>
       <c r="S5">
-        <v>0.00485491426922918</v>
+        <v>0.006936234509115627</v>
       </c>
       <c r="T5">
-        <v>0.00485491426922918</v>
+        <v>0.006936234509115627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>339.0979066083891</v>
+        <v>600.4489067393924</v>
       </c>
       <c r="R6">
-        <v>339.0979066083891</v>
+        <v>5404.040160654532</v>
       </c>
       <c r="S6">
-        <v>0.001857041701130518</v>
+        <v>0.002635073618829638</v>
       </c>
       <c r="T6">
-        <v>0.001857041701130518</v>
+        <v>0.002635073618829637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>215.8343688866863</v>
+        <v>403.4667062406809</v>
       </c>
       <c r="R7">
-        <v>215.8343688866863</v>
+        <v>3631.200356166128</v>
       </c>
       <c r="S7">
-        <v>0.001181999109250319</v>
+        <v>0.001770616053685882</v>
       </c>
       <c r="T7">
-        <v>0.001181999109250319</v>
+        <v>0.001770616053685882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>2417.401616710916</v>
+        <v>5303.605524582733</v>
       </c>
       <c r="R8">
-        <v>2417.401616710916</v>
+        <v>47732.4497212446</v>
       </c>
       <c r="S8">
-        <v>0.013238700455314</v>
+        <v>0.02327490456831275</v>
       </c>
       <c r="T8">
-        <v>0.013238700455314</v>
+        <v>0.02327490456831275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>36716.30166278233</v>
+        <v>37853.35763133848</v>
       </c>
       <c r="R9">
-        <v>36716.30166278233</v>
+        <v>340680.2186820463</v>
       </c>
       <c r="S9">
-        <v>0.2010737960049316</v>
+        <v>0.1661196863861651</v>
       </c>
       <c r="T9">
-        <v>0.2010737960049316</v>
+        <v>0.1661196863861651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>32665.41684724094</v>
+        <v>37016.95875132825</v>
       </c>
       <c r="R10">
-        <v>32665.41684724094</v>
+        <v>333152.6287619543</v>
       </c>
       <c r="S10">
-        <v>0.1788894596161364</v>
+        <v>0.1624491448982943</v>
       </c>
       <c r="T10">
-        <v>0.1788894596161364</v>
+        <v>0.1624491448982943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>40809.44887168673</v>
+        <v>42298.71876270152</v>
       </c>
       <c r="R11">
-        <v>40809.44887168673</v>
+        <v>380688.4688643137</v>
       </c>
       <c r="S11">
-        <v>0.223489578903231</v>
+        <v>0.1856281803012177</v>
       </c>
       <c r="T11">
-        <v>0.223489578903231</v>
+        <v>0.1856281803012177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>15609.92515052351</v>
+        <v>16069.27184705297</v>
       </c>
       <c r="R12">
-        <v>15609.92515052351</v>
+        <v>144623.4466234767</v>
       </c>
       <c r="S12">
-        <v>0.08548646686140021</v>
+        <v>0.07052009561964137</v>
       </c>
       <c r="T12">
-        <v>0.08548646686140021</v>
+        <v>0.07052009561964137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>9935.650670714878</v>
+        <v>10797.61510271265</v>
       </c>
       <c r="R13">
-        <v>9935.650670714878</v>
+        <v>97178.53592441385</v>
       </c>
       <c r="S13">
-        <v>0.0544117709481798</v>
+        <v>0.04738539846452508</v>
       </c>
       <c r="T13">
-        <v>0.0544117709481798</v>
+        <v>0.04738539846452508</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>162.6287147135556</v>
+        <v>1141.682963157755</v>
       </c>
       <c r="R14">
-        <v>162.6287147135556</v>
+        <v>10275.14666841979</v>
       </c>
       <c r="S14">
-        <v>0.000890622735023571</v>
+        <v>0.005010282512829964</v>
       </c>
       <c r="T14">
-        <v>0.000890622735023571</v>
+        <v>0.005010282512829966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>2470.059135882314</v>
+        <v>8148.519588363771</v>
       </c>
       <c r="R15">
-        <v>2470.059135882314</v>
+        <v>73336.67629527394</v>
       </c>
       <c r="S15">
-        <v>0.01352707501343917</v>
+        <v>0.0357598269541578</v>
       </c>
       <c r="T15">
-        <v>0.01352707501343917</v>
+        <v>0.03575982695415781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>2197.539176248757</v>
+        <v>7968.471817599932</v>
       </c>
       <c r="R16">
-        <v>2197.539176248757</v>
+        <v>71716.2463583994</v>
       </c>
       <c r="S16">
-        <v>0.01203464194450143</v>
+        <v>0.03496968623519935</v>
       </c>
       <c r="T16">
-        <v>0.01203464194450143</v>
+        <v>0.03496968623519936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>2745.422263430475</v>
+        <v>9105.452196800967</v>
       </c>
       <c r="R17">
-        <v>2745.422263430475</v>
+        <v>81949.0697712087</v>
       </c>
       <c r="S17">
-        <v>0.01503507845682583</v>
+        <v>0.03995933143020659</v>
       </c>
       <c r="T17">
-        <v>0.01503507845682583</v>
+        <v>0.0399593314302066</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>1050.144935146713</v>
+        <v>3459.158833192879</v>
       </c>
       <c r="R18">
-        <v>1050.144935146713</v>
+        <v>31132.42949873591</v>
       </c>
       <c r="S18">
-        <v>0.005751032073019005</v>
+        <v>0.01518053923053312</v>
       </c>
       <c r="T18">
-        <v>0.005751032073019005</v>
+        <v>0.01518053923053312</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>668.412764867636</v>
+        <v>2324.353338189076</v>
       </c>
       <c r="R19">
-        <v>668.412764867636</v>
+        <v>20919.18004370168</v>
       </c>
       <c r="S19">
-        <v>0.003660507345333283</v>
+        <v>0.01020043852783455</v>
       </c>
       <c r="T19">
-        <v>0.003660507345333283</v>
+        <v>0.01020043852783455</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>195.8552588918608</v>
+        <v>423.3490669862791</v>
       </c>
       <c r="R20">
-        <v>195.8552588918608</v>
+        <v>3810.141602876512</v>
       </c>
       <c r="S20">
-        <v>0.00107258516216066</v>
+        <v>0.001857869912744899</v>
       </c>
       <c r="T20">
-        <v>0.00107258516216066</v>
+        <v>0.001857869912744899</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>2974.714965856597</v>
+        <v>3021.564021163865</v>
       </c>
       <c r="R21">
-        <v>2974.714965856597</v>
+        <v>27194.07619047479</v>
       </c>
       <c r="S21">
-        <v>0.01629078101904178</v>
+        <v>0.0132601517804568</v>
       </c>
       <c r="T21">
-        <v>0.01629078101904178</v>
+        <v>0.01326015178045681</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>2646.516668641739</v>
+        <v>2954.800253790997</v>
       </c>
       <c r="R22">
-        <v>2646.516668641739</v>
+        <v>26593.20228411898</v>
       </c>
       <c r="S22">
-        <v>0.01449343012925324</v>
+        <v>0.01296715858799142</v>
       </c>
       <c r="T22">
-        <v>0.01449343012925324</v>
+        <v>0.01296715858799142</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>3306.337316375747</v>
+        <v>3376.405548999342</v>
       </c>
       <c r="R23">
-        <v>3306.337316375747</v>
+        <v>30387.64994099408</v>
       </c>
       <c r="S23">
-        <v>0.01810688345417769</v>
+        <v>0.01481737594785843</v>
       </c>
       <c r="T23">
-        <v>0.01810688345417769</v>
+        <v>0.01481737594785844</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>1264.699216921206</v>
+        <v>1282.695557214162</v>
       </c>
       <c r="R24">
-        <v>1264.699216921206</v>
+        <v>11544.26001492745</v>
       </c>
       <c r="S24">
-        <v>0.006926020890839928</v>
+        <v>0.005629117125317724</v>
       </c>
       <c r="T24">
-        <v>0.006926020890839928</v>
+        <v>0.005629117125317724</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>804.9756486138144</v>
+        <v>861.8967338770915</v>
       </c>
       <c r="R25">
-        <v>804.9756486138144</v>
+        <v>7757.070604893824</v>
       </c>
       <c r="S25">
-        <v>0.004408382708174046</v>
+        <v>0.003782438972081741</v>
       </c>
       <c r="T25">
-        <v>0.004408382708174046</v>
+        <v>0.003782438972081741</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>181.5225097225029</v>
+        <v>462.2593924558907</v>
       </c>
       <c r="R26">
-        <v>181.5225097225029</v>
+        <v>4160.334532103017</v>
       </c>
       <c r="S26">
-        <v>0.0009940930441598259</v>
+        <v>0.002028628108811612</v>
       </c>
       <c r="T26">
-        <v>0.0009940930441598259</v>
+        <v>0.002028628108811612</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>2757.024393251148</v>
+        <v>3299.278202342313</v>
       </c>
       <c r="R27">
-        <v>2757.024393251148</v>
+        <v>29693.50382108082</v>
       </c>
       <c r="S27">
-        <v>0.01509861656331081</v>
+        <v>0.01447890212571444</v>
       </c>
       <c r="T27">
-        <v>0.01509861656331081</v>
+        <v>0.01447890212571444</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>2452.843750187656</v>
+        <v>3226.378127792607</v>
       </c>
       <c r="R28">
-        <v>2452.843750187656</v>
+        <v>29037.40315013346</v>
       </c>
       <c r="S28">
-        <v>0.01343279637440013</v>
+        <v>0.01415897971249899</v>
       </c>
       <c r="T28">
-        <v>0.01343279637440013</v>
+        <v>0.01415897971249899</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>3064.378516326029</v>
+        <v>3686.73347711835</v>
       </c>
       <c r="R29">
-        <v>3064.378516326029</v>
+        <v>33180.60129406516</v>
       </c>
       <c r="S29">
-        <v>0.0167818160536091</v>
+        <v>0.01617925191664486</v>
       </c>
       <c r="T29">
-        <v>0.0167818160536091</v>
+        <v>0.01617925191664486</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>1172.148132240741</v>
+        <v>1400.589053389613</v>
       </c>
       <c r="R30">
-        <v>1172.148132240741</v>
+        <v>12605.30148050652</v>
       </c>
       <c r="S30">
-        <v>0.006419172513462674</v>
+        <v>0.00614649343846731</v>
       </c>
       <c r="T30">
-        <v>0.006419172513462674</v>
+        <v>0.00614649343846731</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>746.0672786047493</v>
+        <v>941.1142993605648</v>
       </c>
       <c r="R31">
-        <v>746.0672786047493</v>
+        <v>8470.028694245084</v>
       </c>
       <c r="S31">
-        <v>0.004085775881294408</v>
+        <v>0.004130085732048296</v>
       </c>
       <c r="T31">
-        <v>0.004085775881294408</v>
+        <v>0.004130085732048296</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>185.2067358853603</v>
+        <v>563.371859088802</v>
       </c>
       <c r="R32">
-        <v>185.2067358853603</v>
+        <v>5070.346731799218</v>
       </c>
       <c r="S32">
-        <v>0.001014269404696087</v>
+        <v>0.002472360773437507</v>
       </c>
       <c r="T32">
-        <v>0.001014269404696087</v>
+        <v>0.002472360773437508</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>2812.981648452058</v>
+        <v>4020.946950649814</v>
       </c>
       <c r="R33">
-        <v>2812.981648452058</v>
+        <v>36188.52255584833</v>
       </c>
       <c r="S33">
-        <v>0.01540506185348744</v>
+        <v>0.01764594974434597</v>
       </c>
       <c r="T33">
-        <v>0.01540506185348744</v>
+        <v>0.01764594974434598</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>2502.627279137632</v>
+        <v>3932.101053309396</v>
       </c>
       <c r="R34">
-        <v>2502.627279137632</v>
+        <v>35388.90947978457</v>
       </c>
       <c r="S34">
-        <v>0.01370543176225675</v>
+        <v>0.01725604899243305</v>
       </c>
       <c r="T34">
-        <v>0.01370543176225675</v>
+        <v>0.01725604899243305</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>3126.573907520242</v>
+        <v>4493.15238774143</v>
       </c>
       <c r="R35">
-        <v>3126.573907520242</v>
+        <v>40438.37148967287</v>
       </c>
       <c r="S35">
-        <v>0.01712242398074433</v>
+        <v>0.01971822612953404</v>
       </c>
       <c r="T35">
-        <v>0.01712242398074433</v>
+        <v>0.01971822612953405</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>1195.9383432848</v>
+        <v>1706.947379988226</v>
       </c>
       <c r="R36">
-        <v>1195.9383432848</v>
+        <v>15362.52641989403</v>
       </c>
       <c r="S36">
-        <v>0.006549457640933355</v>
+        <v>0.007490948787237181</v>
       </c>
       <c r="T36">
-        <v>0.006549457640933355</v>
+        <v>0.007490948787237182</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>761.2096462994742</v>
+        <v>1146.969258166904</v>
       </c>
       <c r="R37">
-        <v>761.2096462994742</v>
+        <v>10322.72332350214</v>
       </c>
       <c r="S37">
-        <v>0.004168701808334797</v>
+        <v>0.005033481450097754</v>
       </c>
       <c r="T37">
-        <v>0.004168701808334797</v>
+        <v>0.005033481450097755</v>
       </c>
     </row>
   </sheetData>
